--- a/01_data-input/wiiw/gfcf.xlsx
+++ b/01_data-input/wiiw/gfcf.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A3F9B4-E911-4D0C-B88E-9AB2174DB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D15CD-F0CC-476E-92D5-8795200FDDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -121,18 +122,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -140,6 +144,7 @@
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -477,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -835,4 +840,250 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AFFC8C-ED08-445B-8820-356CB5CA1189}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3608.2750000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3602.2570000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3959.2339999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3999.306</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4206.47</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5059.2380000000003</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4559.1610000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>6043.8010000000004</v>
+      </c>
+      <c r="M2" s="3">
+        <v>7341.9219999999996</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5878.82</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5265.7359999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>5764.8249999999998</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5733.9930000000004</v>
+      </c>
+      <c r="R2" s="3">
+        <v>5629.8760000000002</v>
+      </c>
+      <c r="S2" s="3">
+        <v>6263.4</v>
+      </c>
+      <c r="T2" s="3">
+        <v>6038.9040000000005</v>
+      </c>
+      <c r="U2" s="3">
+        <v>6195.2870000000003</v>
+      </c>
+      <c r="V2" s="3">
+        <v>6886.0540000000001</v>
+      </c>
+      <c r="W2" s="3">
+        <v>7609.8710000000001</v>
+      </c>
+      <c r="X2" s="3">
+        <v>8129.1369999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1052.9000000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1109.7</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1250.0999999999999</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1419.5</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1472.6</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1478.9</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1464.7</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1604</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1691.1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1904.4</v>
+      </c>
+      <c r="W3" s="3">
+        <v>2115.6</v>
+      </c>
+      <c r="X3" s="3">
+        <v>2190.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>